--- a/Plan Work/[WLS] Plan Work.xlsx
+++ b/Plan Work/[WLS] Plan Work.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git document\project viettridao\Plan Work\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C39774-225B-4853-B7C8-5B8762E9B032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27975" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Work Plan" sheetId="1" r:id="rId1"/>
@@ -28,18 +22,33 @@
     <t xml:space="preserve">Week 1 </t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
-    <t>Member</t>
-  </si>
-  <si>
     <t>TuND</t>
   </si>
   <si>
+    <t>Edit prototype</t>
+  </si>
+  <si>
+    <t>Study URD</t>
+  </si>
+  <si>
+    <t>Meeting discussion for SRS</t>
+  </si>
+  <si>
+    <t>Deliver SRS for customer</t>
+  </si>
+  <si>
     <t>HieuTN</t>
   </si>
   <si>
+    <t>Create SRS</t>
+  </si>
+  <si>
     <t>QuangNN</t>
   </si>
   <si>
@@ -47,21 +56,6 @@
   </si>
   <si>
     <t>HienNTU</t>
-  </si>
-  <si>
-    <t>Edit prototype</t>
-  </si>
-  <si>
-    <t>Study URD</t>
-  </si>
-  <si>
-    <t>Create SRS</t>
-  </si>
-  <si>
-    <t>Meeting discussion for SRS</t>
-  </si>
-  <si>
-    <t>Deliver SRS for customer</t>
   </si>
   <si>
     <t>Week 2</t>
@@ -70,8 +64,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -82,16 +82,167 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,12 +251,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,49 +452,335 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -444,231 +1067,232 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4266666666667" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="14.42578125" style="1"/>
-    <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="6" width="14.4266666666667" style="1"/>
+    <col min="7" max="7" width="25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.14" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.4266666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="21">
+    <row r="3" ht="21" spans="2:2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1">
+    <row r="6" customHeight="1" spans="2:2">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="C7" s="6" t="s">
+    <row r="7" customHeight="1" spans="3:8">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>43986</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>43987</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>43988</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>43989</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="C8" s="4" t="s">
+    <row r="8" customHeight="1" spans="3:8">
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:8">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:8">
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="3:8">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:8">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1">
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="C10" s="4" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="C11" s="4" t="s">
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1">
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:2">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8">
+    <row r="15" customHeight="1" spans="3:10">
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
         <v>43990</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>43991</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>43992</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>43993</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>43994</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>43995</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>43996</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="C16" s="4" t="s">
+    <row r="16" customHeight="1" spans="3:10">
+      <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="3:10" ht="15" customHeight="1">
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="3:10" ht="15" customHeight="1">
-      <c r="C18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="3:10" ht="15" customHeight="1">
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="3:10" ht="15" customHeight="1">
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:10">
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:10">
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:10">
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:10">
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>